--- a/SchedulingData/static4/pso/scheduling1_11.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_11.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.2</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>26.36</v>
+        <v>25.644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53.2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>107.7</v>
+        <v>66.44</v>
       </c>
       <c r="E3" t="n">
-        <v>23.52</v>
+        <v>26.016</v>
       </c>
     </row>
     <row r="4">
@@ -504,307 +504,307 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="E4" t="n">
-        <v>24.3</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>88.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>159.74</v>
+        <v>71.12</v>
       </c>
       <c r="E5" t="n">
-        <v>20.796</v>
+        <v>24.568</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>81.5</v>
       </c>
       <c r="D6" t="n">
-        <v>55.46</v>
+        <v>116.12</v>
       </c>
       <c r="E6" t="n">
-        <v>25.644</v>
+        <v>24.148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>159.74</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>244.86</v>
+        <v>151.5</v>
       </c>
       <c r="E7" t="n">
-        <v>17.364</v>
+        <v>21.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>107.7</v>
+        <v>71.12</v>
       </c>
       <c r="D8" t="n">
-        <v>164.8</v>
+        <v>118.22</v>
       </c>
       <c r="E8" t="n">
-        <v>20.44</v>
+        <v>22.488</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>164.8</v>
+        <v>66.44</v>
       </c>
       <c r="D9" t="n">
-        <v>230.9</v>
+        <v>114.8</v>
       </c>
       <c r="E9" t="n">
-        <v>16.96</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>151.5</v>
       </c>
       <c r="D10" t="n">
-        <v>53.84</v>
+        <v>239.5</v>
       </c>
       <c r="E10" t="n">
-        <v>27.296</v>
+        <v>15.94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>44.1</v>
+        <v>63.1</v>
       </c>
       <c r="E11" t="n">
-        <v>27.28</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>244.86</v>
+        <v>239.5</v>
       </c>
       <c r="D12" t="n">
-        <v>307.92</v>
+        <v>298.42</v>
       </c>
       <c r="E12" t="n">
-        <v>13.668</v>
+        <v>13.168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>53.84</v>
+        <v>63.1</v>
       </c>
       <c r="D13" t="n">
-        <v>115.54</v>
+        <v>124.04</v>
       </c>
       <c r="E13" t="n">
-        <v>22.256</v>
+        <v>23.916</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>76.12</v>
+        <v>44.1</v>
       </c>
       <c r="E14" t="n">
-        <v>24.568</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>76.12</v>
+        <v>118.22</v>
       </c>
       <c r="D15" t="n">
-        <v>150.98</v>
+        <v>170.92</v>
       </c>
       <c r="E15" t="n">
-        <v>19.192</v>
+        <v>18.848</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>307.92</v>
+        <v>298.42</v>
       </c>
       <c r="D16" t="n">
-        <v>353.76</v>
+        <v>336.76</v>
       </c>
       <c r="E16" t="n">
-        <v>10.704</v>
+        <v>10.464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>150.98</v>
+        <v>170.92</v>
       </c>
       <c r="D17" t="n">
-        <v>203.18</v>
+        <v>265.78</v>
       </c>
       <c r="E17" t="n">
-        <v>15.112</v>
+        <v>13.472</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>55.46</v>
+        <v>116.12</v>
       </c>
       <c r="D18" t="n">
-        <v>127.86</v>
+        <v>162.22</v>
       </c>
       <c r="E18" t="n">
-        <v>22.524</v>
+        <v>20.668</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>127.86</v>
+        <v>44.1</v>
       </c>
       <c r="D19" t="n">
-        <v>180.26</v>
+        <v>110.7</v>
       </c>
       <c r="E19" t="n">
-        <v>19.404</v>
+        <v>22.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -812,260 +812,260 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>115.54</v>
+        <v>110.7</v>
       </c>
       <c r="D20" t="n">
-        <v>178.86</v>
+        <v>174.02</v>
       </c>
       <c r="E20" t="n">
-        <v>18.044</v>
+        <v>18.028</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>180.26</v>
+        <v>174.02</v>
       </c>
       <c r="D21" t="n">
-        <v>264.46</v>
+        <v>226.74</v>
       </c>
       <c r="E21" t="n">
-        <v>14.084</v>
+        <v>14.376</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>44.1</v>
+        <v>162.22</v>
       </c>
       <c r="D22" t="n">
-        <v>101.6</v>
+        <v>215.02</v>
       </c>
       <c r="E22" t="n">
-        <v>24.16</v>
+        <v>18.028</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>178.86</v>
+        <v>124.04</v>
       </c>
       <c r="D23" t="n">
-        <v>230</v>
+        <v>214.98</v>
       </c>
       <c r="E23" t="n">
-        <v>14.06</v>
+        <v>20.412</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>264.46</v>
+        <v>215.02</v>
       </c>
       <c r="D24" t="n">
-        <v>310.52</v>
+        <v>284.42</v>
       </c>
       <c r="E24" t="n">
-        <v>11.588</v>
+        <v>12.708</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>101.6</v>
+        <v>114.8</v>
       </c>
       <c r="D25" t="n">
-        <v>160.42</v>
+        <v>164.5</v>
       </c>
       <c r="E25" t="n">
-        <v>21.388</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>230</v>
+        <v>284.42</v>
       </c>
       <c r="D26" t="n">
-        <v>269.52</v>
+        <v>330.48</v>
       </c>
       <c r="E26" t="n">
-        <v>11.728</v>
+        <v>10.212</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>269.52</v>
+        <v>226.74</v>
       </c>
       <c r="D27" t="n">
-        <v>322.34</v>
+        <v>286.16</v>
       </c>
       <c r="E27" t="n">
-        <v>8.076000000000001</v>
+        <v>11.544</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>160.42</v>
+        <v>164.5</v>
       </c>
       <c r="D28" t="n">
-        <v>197.42</v>
+        <v>236.6</v>
       </c>
       <c r="E28" t="n">
-        <v>19.308</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>203.18</v>
+        <v>236.6</v>
       </c>
       <c r="D29" t="n">
-        <v>247.8</v>
+        <v>287.22</v>
       </c>
       <c r="E29" t="n">
-        <v>12.28</v>
+        <v>12.928</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>247.8</v>
+        <v>286.16</v>
       </c>
       <c r="D30" t="n">
-        <v>329.1</v>
+        <v>328.66</v>
       </c>
       <c r="E30" t="n">
-        <v>8.76</v>
+        <v>8.423999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>197.42</v>
+        <v>214.98</v>
       </c>
       <c r="D31" t="n">
-        <v>274.62</v>
+        <v>276.98</v>
       </c>
       <c r="E31" t="n">
-        <v>16.668</v>
+        <v>16.332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>274.62</v>
+        <v>276.98</v>
       </c>
       <c r="D32" t="n">
-        <v>335.86</v>
+        <v>347.48</v>
       </c>
       <c r="E32" t="n">
-        <v>12.664</v>
+        <v>12.372</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>230.9</v>
+        <v>287.22</v>
       </c>
       <c r="D33" t="n">
-        <v>311.2</v>
+        <v>368.92</v>
       </c>
       <c r="E33" t="n">
-        <v>13</v>
+        <v>9.848000000000001</v>
       </c>
     </row>
   </sheetData>
